--- a/배포기술서/5조_배포기술서.xlsx
+++ b/배포기술서/5조_배포기술서.xlsx
@@ -956,7 +956,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -1205,12 +1205,6 @@
       <color rgb="FFFA7D00"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <name val="Arial"/>
       <color rgb="FF006100"/>
@@ -1235,6 +1229,23 @@
       <sz val="11.0"/>
       <name val="Arial"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="1.0"/>
+      <name val="Arial"/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <sz val="1.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="1.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="55">
@@ -1812,7 +1823,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1821,7 +1831,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1830,7 +1839,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1839,7 +1847,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1854,7 +1861,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1869,7 +1875,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1884,7 +1889,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1893,7 +1897,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1904,7 +1907,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1968,19 +1970,19 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1989,10 +1991,10 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2001,10 +2003,10 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2013,10 +2015,10 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2025,10 +2027,10 @@
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2037,10 +2039,10 @@
     <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="51" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="50" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="51" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="52" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2049,10 +2051,10 @@
     <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="54" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="54" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2580,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/배포기술서/5조_배포기술서.xlsx
+++ b/배포기술서/5조_배포기술서.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>내용/회차</t>
   </si>
@@ -946,6 +946,13 @@
   </si>
   <si>
     <t>내용</t>
+  </si>
+  <si>
+    <t>&lt;빌드시 dependecy선택&gt;
+Spring Dev Tools, Spring Web, Lombok, MySQL Driver, Spring Data JPA</t>
+  </si>
+  <si>
+    <t>JDK 11</t>
   </si>
 </sst>
 </file>
@@ -2583,7 +2590,7 @@
   <dimension ref="B1:G992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43000000" defaultRowHeight="15.750000" customHeight="1"/>
@@ -2694,7 +2701,7 @@
         <v>189</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="G9" s="69"/>
     </row>
@@ -2705,7 +2712,7 @@
         <v>152</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>192</v>
